--- a/Build_Query_Challenge_2_Data.xlsx
+++ b/Build_Query_Challenge_2_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b2883e915511a7e/Documents/Swinburne/Teaching/2020/DAD_Online/ASSESSMENTS/Build_Query_Challenge_Resit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveswinburneeduau-my.sharepoint.com/personal/103620582_student_swin_edu_au/Documents/DAD/RESIT-BuildQueryChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{37B0031C-5ACF-5243-9A30-63D2BB941CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7A12BBAF-0E38-304E-981C-1305E5708D19}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{37B0031C-5ACF-5243-9A30-63D2BB941CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1008952F-9027-9747-9276-C46DF63F04F2}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="460" windowWidth="21260" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2560" yWindow="500" windowWidth="21260" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data 3NF" sheetId="2" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>EventFee</t>
   </si>
   <si>
-    <t>Tour</t>
-  </si>
-  <si>
     <t>Enrollment</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>Chris</t>
+  </si>
+  <si>
+    <t>Suubject</t>
   </si>
 </sst>
 </file>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -695,7 +695,7 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -704,31 +704,31 @@
       <c r="F2" s="11"/>
       <c r="G2" s="12"/>
       <c r="H2" s="24" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>1</v>
@@ -736,10 +736,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4">
         <v>2019</v>
@@ -748,24 +748,24 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="23">
         <v>43521</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4">
         <v>2019</v>
@@ -774,24 +774,24 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="23">
         <v>43511</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4">
         <v>2020</v>
@@ -800,24 +800,24 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="23">
         <v>43860</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4">
         <v>2020</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="23">
         <v>43887</v>
@@ -834,10 +834,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4">
         <v>2020</v>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="23">
         <v>43858</v>
@@ -854,10 +854,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4">
         <v>2020</v>
@@ -866,23 +866,23 @@
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="23">
         <v>43869</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4">
         <v>2020</v>
@@ -895,7 +895,7 @@
         <v>44012</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>2</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4">
         <v>2020</v>
@@ -925,18 +925,18 @@
         <v>98776655</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4">
         <v>2019</v>
@@ -945,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="23">
         <v>43647</v>
@@ -954,18 +954,18 @@
         <v>87665544</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4">
         <v>2019</v>
@@ -974,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="23">
         <v>43659</v>
@@ -983,10 +983,10 @@
         <v>76554433</v>
       </c>
       <c r="I13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1006,7 +1006,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
@@ -1036,13 +1036,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>0</v>
@@ -1054,13 +1054,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>0</v>
@@ -1072,13 +1072,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>0</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -1116,19 +1116,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="14"/>
       <c r="H24" s="14"/>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="4">
         <v>2019</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="4">
         <v>2020</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="4">
         <v>2020</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="4">
         <v>2020</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="4">
         <v>2019</v>
